--- a/www/terminologies/ValueSet-JDV-J198-FonctionLieu-ROR.xlsx
+++ b/www/terminologies/ValueSet-JDV-J198-FonctionLieu-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -239,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -339,20 +345,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -374,34 +388,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/ValueSet-JDV-J198-FonctionLieu-ROR.xlsx
+++ b/www/terminologies/ValueSet-JDV-J198-FonctionLieu-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20220930120000</t>
+    <t>20250620120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T12:00:00+01:00</t>
+    <t>2025-06-20T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,79 @@
     <t>001</t>
   </si>
   <si>
-    <t>Hébergement</t>
+    <t>Hébergement MCO</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Hébergement PSY</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Hébergement MS</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Hébergement SMR</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Bloc opératoire</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Caisson hyperbare</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Chambre mortuaire</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Plateau d’endoscopie</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Plateau d’imagerie conventionnelle</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Plateau d’imagerie interventionnelle</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>Plateau de réadaptation</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Salle de travail (salle de naissance)</t>
   </si>
   <si>
     <t/>
@@ -376,7 +448,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,15 +479,111 @@
         <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/ValueSet-JDV-J198-FonctionLieu-ROR.xlsx
+++ b/www/terminologies/ValueSet-JDV-J198-FonctionLieu-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250620120000</t>
+    <t>20251017120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:00:00+01:00</t>
+    <t>2025-10-17T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Salle de travail (salle de naissance)</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>Bloc obstétrical</t>
   </si>
   <si>
     <t/>
@@ -448,7 +454,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -575,15 +581,23 @@
         <v>54</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/ValueSet-JDV-J198-FonctionLieu-ROR.xlsx
+++ b/www/terminologies/ValueSet-JDV-J198-FonctionLieu-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20251017120000</t>
+    <t>20251222120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T12:00:00+01:00</t>
+    <t>2025-12-22T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -181,6 +181,90 @@
   </si>
   <si>
     <t>Bloc obstétrical</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Local de cabinet de ville d'ergothérapie</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>Local de cabinet de ville de diététique</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>Local de cabinet dentaire ou de stomatologie</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>Local de cabinet de ville de kinésithérapie</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>Local de cabinet de ville infirmier</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>Local de cabinet de ville de maïeutique</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>Local de cabinet de ville d’oto-rhino-laryngologie (ORL)</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>Local de cabinet de ville de cardiologie</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>Local de cabinet de ville de médecine générale</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>Local de cabinet de ville de Médecine Physique et de Réadaptation (MPR)</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>Local de cabinet de ville de rhumatologie</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>Local de cabinet de ville de pédiatrie</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>Local de cabinet de ville d’ophtalmologie</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>Local de cabinet de ville de pneumologie</t>
   </si>
   <si>
     <t/>
@@ -454,7 +538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -589,15 +673,127 @@
         <v>56</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
